--- a/config/Score_config/mode_dictionary.xlsx
+++ b/config/Score_config/mode_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\Score_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00233C68-74C0-46A6-81AD-18960D0632B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5CA10-7787-4CA1-8B7B-BAD72D62DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rr_2227</t>
-  </si>
-  <si>
-    <t>rr_1247</t>
+    <t>rr_1864</t>
+  </si>
+  <si>
+    <t>rr_1130</t>
   </si>
 </sst>
 </file>
@@ -453,18 +453,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -492,7 +492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -506,7 +506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -520,7 +520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -534,7 +534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -562,7 +562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -618,7 +618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -646,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -660,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>

--- a/config/Score_config/mode_dictionary.xlsx
+++ b/config/Score_config/mode_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5CA10-7787-4CA1-8B7B-BAD72D62DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86437E2-8676-42A6-ABBF-38A2374DB5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -117,10 +117,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rr_1864</t>
-  </si>
-  <si>
-    <t>rr_1130</t>
+    <t>rr_2394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rr_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,18 +455,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -492,7 +494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -506,7 +508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -520,7 +522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -534,7 +536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -548,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -562,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -576,7 +578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -590,7 +592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -604,7 +606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -618,7 +620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -628,11 +630,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -642,11 +644,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -656,11 +658,11 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -670,7 +672,7 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/config/Score_config/mode_dictionary.xlsx
+++ b/config/Score_config/mode_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86437E2-8676-42A6-ABBF-38A2374DB5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C2943D-0FCF-47BE-86F2-D8CFFD009270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -117,12 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rr_2394</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rr_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>rr_1219</t>
+  </si>
+  <si>
+    <t>rr_2784</t>
   </si>
 </sst>
 </file>
@@ -455,7 +453,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -505,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -533,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -589,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -617,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,8 +628,8 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
+      <c r="D12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -644,8 +642,8 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -658,8 +656,8 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -672,8 +670,8 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
